--- a/excel/test1.xlsx
+++ b/excel/test1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\X撑1\matlab\君士但丁堡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文档\python\GoodToolPython\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF744BB-FD07-4B13-AE72-61C08DD1FFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6795" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1078,7 +1079,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1401,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3829,7 +3830,7 @@
         <v>485.066641948778</v>
       </c>
       <c r="R14">
-        <v>11129.769897512679</v>
+        <v>-11129.7698975127</v>
       </c>
       <c r="S14">
         <v>3344.4694014928582</v>
@@ -34724,7 +34725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34860,7 +34861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68731,10 +68732,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
